--- a/public/sample/Expenditure_Sample_Data.xlsx
+++ b/public/sample/Expenditure_Sample_Data.xlsx
@@ -1,42 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluew\Documents\Global IQ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B692FAB9-048F-4CD0-917F-B3F75D4AF4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0391EEDF-E04D-43CA-8373-357D65B06BEF}"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficients" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="17">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>num_of_adult</t>
+  </si>
+  <si>
+    <t>num_of_child</t>
+  </si>
+  <si>
+    <t>coefficient_a</t>
+  </si>
+  <si>
+    <t>coefficient_b</t>
+  </si>
+  <si>
+    <t>Price_Date</t>
+  </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
   <si>
     <t>G&amp;S</t>
@@ -57,55 +64,381 @@
     <t>CAN</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>CAD</t>
-  </si>
-  <si>
-    <t>num_of_adult</t>
-  </si>
-  <si>
-    <t>num_of_child</t>
-  </si>
-  <si>
-    <t>coefficient_a</t>
-  </si>
-  <si>
-    <t>coefficient_b</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,27 +446,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -182,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -215,26 +835,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -267,23 +870,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,62 +1011,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2247901-3AD3-4563-8092-21A35EB7C9C1}">
-  <dimension ref="A1:G141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H2" sqref="H2:H141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="14.2857142857143" customWidth="1"/>
     <col min="6" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -489,21 +1073,24 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G2">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -512,21 +1099,24 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G3">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -535,21 +1125,24 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G4">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -558,21 +1151,24 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G5">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H5" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -581,21 +1177,24 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G6">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -604,21 +1203,24 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G7">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -627,21 +1229,24 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G8">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -650,21 +1255,24 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G9">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -673,21 +1281,24 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G10">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -696,21 +1307,24 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G11">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -719,21 +1333,24 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G12">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -742,21 +1359,24 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G13">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -765,21 +1385,24 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G14">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -788,21 +1411,24 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G15">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -811,21 +1437,24 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.62341999999999997</v>
+        <v>0.62342</v>
       </c>
       <c r="G16">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -834,21 +1463,24 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G17">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -857,21 +1489,24 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G18">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -880,21 +1515,24 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G19">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -903,21 +1541,24 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G20">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -926,21 +1567,24 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G21">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -949,21 +1593,24 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G22">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -972,21 +1619,24 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G23">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -995,21 +1645,24 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G24">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1018,21 +1671,24 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G25">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1041,21 +1697,24 @@
         <v>3</v>
       </c>
       <c r="F26">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G26">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1064,21 +1723,24 @@
         <v>4</v>
       </c>
       <c r="F27">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G27">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1087,21 +1749,24 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G28">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1110,21 +1775,24 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G29">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1136,18 +1804,21 @@
         <v>0.65342</v>
       </c>
       <c r="G30">
-        <v>0.88344999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.88345</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1156,21 +1827,24 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G31">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1179,21 +1853,24 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G32">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1202,21 +1879,24 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G33">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H33" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1225,21 +1905,24 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G34">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H34" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1248,21 +1931,24 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G35">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1271,21 +1957,24 @@
         <v>6</v>
       </c>
       <c r="F36">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G36">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H36" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -1294,21 +1983,24 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G37">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H37" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -1317,21 +2009,24 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G38">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1340,21 +2035,24 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G39">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H39" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1363,21 +2061,24 @@
         <v>3</v>
       </c>
       <c r="F40">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G40">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H40" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1386,21 +2087,24 @@
         <v>4</v>
       </c>
       <c r="F41">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G41">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H41" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1409,21 +2113,24 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G42">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H42" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1432,21 +2139,24 @@
         <v>6</v>
       </c>
       <c r="F43">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G43">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H43" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1455,21 +2165,24 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.61543000000000003</v>
+        <v>0.61543</v>
       </c>
       <c r="G44">
         <v>0.80345</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1478,21 +2191,24 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G45">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H45" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1501,21 +2217,24 @@
         <v>2</v>
       </c>
       <c r="F46">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G46">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H46" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1524,21 +2243,24 @@
         <v>3</v>
       </c>
       <c r="F47">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G47">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1547,21 +2269,24 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G48">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1570,21 +2295,24 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G49">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H49" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1593,21 +2321,24 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G50">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H50" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -1616,21 +2347,24 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G51">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H51" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1639,21 +2373,24 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G52">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H52" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1662,21 +2399,24 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G53">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H53" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1685,21 +2425,24 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G54">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1708,21 +2451,24 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G55">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H55" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1731,21 +2477,24 @@
         <v>5</v>
       </c>
       <c r="F56">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G56">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H56" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1754,21 +2503,24 @@
         <v>6</v>
       </c>
       <c r="F57">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G57">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H57" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1777,21 +2529,24 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.61543000000000003</v>
+        <v>0.61543</v>
       </c>
       <c r="G58">
         <v>0.80345</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1800,21 +2555,24 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G59">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1823,21 +2581,24 @@
         <v>2</v>
       </c>
       <c r="F60">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G60">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1846,21 +2607,24 @@
         <v>3</v>
       </c>
       <c r="F61">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G61">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H61" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1869,21 +2633,24 @@
         <v>4</v>
       </c>
       <c r="F62">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G62">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H62" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1892,21 +2659,24 @@
         <v>5</v>
       </c>
       <c r="F63">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G63">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H63" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1915,21 +2685,24 @@
         <v>6</v>
       </c>
       <c r="F64">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G64">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H64" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1938,21 +2711,24 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G65">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H65" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1961,21 +2737,24 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G66">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -1984,21 +2763,24 @@
         <v>2</v>
       </c>
       <c r="F67">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G67">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H67" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2007,21 +2789,24 @@
         <v>3</v>
       </c>
       <c r="F68">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G68">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -2030,21 +2815,24 @@
         <v>4</v>
       </c>
       <c r="F69">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G69">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -2053,21 +2841,24 @@
         <v>5</v>
       </c>
       <c r="F70">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G70">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2076,21 +2867,24 @@
         <v>6</v>
       </c>
       <c r="F71">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G71">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2099,21 +2893,24 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G72">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2122,21 +2919,24 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G73">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2145,21 +2945,24 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G74">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2168,21 +2971,24 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G75">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H75" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2191,21 +2997,24 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G76">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H76" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2214,21 +3023,24 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G77">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H77" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2237,21 +3049,24 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G78">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H78" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2260,21 +3075,24 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G79">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H79" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -2283,21 +3101,24 @@
         <v>1</v>
       </c>
       <c r="F80">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G80">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -2306,21 +3127,24 @@
         <v>2</v>
       </c>
       <c r="F81">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G81">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H81" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -2329,21 +3153,24 @@
         <v>3</v>
       </c>
       <c r="F82">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G82">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H82" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -2352,21 +3179,24 @@
         <v>4</v>
       </c>
       <c r="F83">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G83">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H83" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -2375,21 +3205,24 @@
         <v>5</v>
       </c>
       <c r="F84">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G84">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H84" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -2398,21 +3231,24 @@
         <v>6</v>
       </c>
       <c r="F85">
-        <v>0.50134199999999995</v>
+        <v>0.501342</v>
       </c>
       <c r="G85">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H85" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2421,21 +3257,24 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.62341999999999997</v>
+        <v>0.62342</v>
       </c>
       <c r="G86">
-        <v>0.85345000000000004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85345</v>
+      </c>
+      <c r="H86" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2444,21 +3283,24 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G87">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H87" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2467,21 +3309,24 @@
         <v>2</v>
       </c>
       <c r="F88">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G88">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H88" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -2490,21 +3335,24 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G89">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H89" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2513,21 +3361,24 @@
         <v>4</v>
       </c>
       <c r="F90">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G90">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H90" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -2536,21 +3387,24 @@
         <v>5</v>
       </c>
       <c r="F91">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G91">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H91" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2559,21 +3413,24 @@
         <v>6</v>
       </c>
       <c r="F92">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G92">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H92" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -2582,21 +3439,24 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G93">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H93" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -2605,21 +3465,24 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G94">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H94" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -2628,21 +3491,24 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G95">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H95" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -2651,21 +3517,24 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G96">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H96" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -2674,21 +3543,24 @@
         <v>4</v>
       </c>
       <c r="F97">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G97">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H97" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -2697,21 +3569,24 @@
         <v>5</v>
       </c>
       <c r="F98">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G98">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H98" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -2720,21 +3595,24 @@
         <v>6</v>
       </c>
       <c r="F99">
-        <v>0.65796299999999996</v>
+        <v>0.657963</v>
       </c>
       <c r="G99">
-        <v>0.89910400000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.899104</v>
+      </c>
+      <c r="H99" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2746,18 +3624,21 @@
         <v>0.65342</v>
       </c>
       <c r="G100">
-        <v>0.88344999999999996</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.88345</v>
+      </c>
+      <c r="H100" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2766,21 +3647,24 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G101">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H101" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2789,21 +3673,24 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G102">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H102" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2812,21 +3699,24 @@
         <v>3</v>
       </c>
       <c r="F103">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G103">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H103" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2835,21 +3725,24 @@
         <v>4</v>
       </c>
       <c r="F104">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G104">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H104" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2858,21 +3751,24 @@
         <v>5</v>
       </c>
       <c r="F105">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G105">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H105" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2881,21 +3777,24 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G106">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H106" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -2904,21 +3803,24 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G107">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H107" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -2927,21 +3829,24 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G108">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H108" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -2950,21 +3855,24 @@
         <v>2</v>
       </c>
       <c r="F109">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G109">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H109" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -2973,21 +3881,24 @@
         <v>3</v>
       </c>
       <c r="F110">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G110">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H110" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -2996,21 +3907,24 @@
         <v>4</v>
       </c>
       <c r="F111">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G111">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H111" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -3019,21 +3933,24 @@
         <v>5</v>
       </c>
       <c r="F112">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G112">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H112" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -3042,21 +3959,24 @@
         <v>6</v>
       </c>
       <c r="F113">
-        <v>0.68796299999999999</v>
+        <v>0.687963</v>
       </c>
       <c r="G113">
-        <v>0.92910399999999993</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.929104</v>
+      </c>
+      <c r="H113" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -3065,21 +3985,24 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.61543000000000003</v>
+        <v>0.61543</v>
       </c>
       <c r="G114">
         <v>0.80345</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3088,21 +4011,24 @@
         <v>1</v>
       </c>
       <c r="F115">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G115">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H115" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3111,21 +4037,24 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G116">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H116" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3134,21 +4063,24 @@
         <v>3</v>
       </c>
       <c r="F117">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G117">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H117" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3157,21 +4089,24 @@
         <v>4</v>
       </c>
       <c r="F118">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G118">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H118" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3180,21 +4115,24 @@
         <v>5</v>
       </c>
       <c r="F119">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G119">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H119" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -3203,21 +4141,24 @@
         <v>6</v>
       </c>
       <c r="F120">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G120">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H120" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3226,21 +4167,24 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G121">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H121" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -3249,21 +4193,24 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G122">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H122" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -3272,21 +4219,24 @@
         <v>2</v>
       </c>
       <c r="F123">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G123">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H123" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -3295,21 +4245,24 @@
         <v>3</v>
       </c>
       <c r="F124">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G124">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H124" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3318,21 +4271,24 @@
         <v>4</v>
       </c>
       <c r="F125">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G125">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H125" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -3341,21 +4297,24 @@
         <v>5</v>
       </c>
       <c r="F126">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G126">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H126" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3364,21 +4323,24 @@
         <v>6</v>
       </c>
       <c r="F127">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G127">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H127" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3387,21 +4349,24 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0.61543000000000003</v>
+        <v>0.61543</v>
       </c>
       <c r="G128">
         <v>0.80345</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3410,21 +4375,24 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G129">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H129" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3433,21 +4401,24 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G130">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H130" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3456,21 +4427,24 @@
         <v>3</v>
       </c>
       <c r="F131">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G131">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H131" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3479,21 +4453,24 @@
         <v>4</v>
       </c>
       <c r="F132">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G132">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H132" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3502,21 +4479,24 @@
         <v>5</v>
       </c>
       <c r="F133">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G133">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H133" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -3525,21 +4505,24 @@
         <v>6</v>
       </c>
       <c r="F134">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G134">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H134" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -3548,21 +4531,24 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G135">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H135" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -3571,21 +4557,24 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G136">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H136" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -3594,21 +4583,24 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G137">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H137" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3617,21 +4609,24 @@
         <v>3</v>
       </c>
       <c r="F138">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G138">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H138" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3640,21 +4635,24 @@
         <v>4</v>
       </c>
       <c r="F139">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G139">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H139" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3663,21 +4661,24 @@
         <v>5</v>
       </c>
       <c r="F140">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G140">
-        <v>0.84910399999999997</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.849104</v>
+      </c>
+      <c r="H140" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -3686,13 +4687,17 @@
         <v>6</v>
       </c>
       <c r="F141">
-        <v>0.64997300000000002</v>
+        <v>0.649973</v>
       </c>
       <c r="G141">
-        <v>0.84910399999999997</v>
+        <v>0.849104</v>
+      </c>
+      <c r="H141" s="2">
+        <v>44470</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>